--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Mercer\Google Drive\  QR\  Videos\Tech\Unit 2\Unit 2 Tech Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF973B77-54C8-4AED-A240-BF1CC3A75B58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15540" windowHeight="10020"/>
+    <workbookView xWindow="3504" yWindow="1212" windowWidth="17916" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Category</t>
   </si>
@@ -32,28 +39,31 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>Bills</t>
-  </si>
-  <si>
     <t>Food</t>
-  </si>
-  <si>
-    <t>Clothing</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Housing</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Housing/
+Utilities</t>
+  </si>
+  <si>
+    <t>Insurance/
+Medical</t>
+  </si>
+  <si>
+    <t>Saving/Giving/
+Paying off Debt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,11 +128,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,7 +174,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -231,25 +254,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>535305</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="1419225"/>
-          <a:ext cx="5295900" cy="457200"/>
+          <a:off x="3674745" y="952501"/>
+          <a:ext cx="5433060" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -296,7 +325,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> any expenses for the categories below.  Feel free to modify or add categories based on your budget.  </a:t>
+            <a:t> any expenses for the categories below.  Feel free to modify or add categories based on your budget.  Make sure to enter at least 10 items and make sure that at least three categories have more then one item.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -569,84 +598,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
+        <f>B11</f>
+        <v>Housing/
+Utilities</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
+        <f>C11</f>
+        <v>Transportation</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
+        <f>D11</f>
+        <v>Food</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
+        <f>E11</f>
+        <v>Insurance/
+Medical</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
+        <f>F11</f>
+        <v>Other</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
+        <f>G11</f>
+        <v>Saving/Giving/
+Paying off Debt</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -654,7 +692,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -662,7 +700,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -670,7 +708,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -678,7 +716,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -686,7 +724,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -694,7 +732,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -702,7 +740,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -710,7 +748,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -718,7 +756,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -726,7 +764,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -734,7 +772,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -742,7 +780,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -750,301 +788,301 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF973B77-54C8-4AED-A240-BF1CC3A75B58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93EE87D-A5B7-4E53-A0F6-7D12A611652C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3504" yWindow="1212" windowWidth="17916" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Category</t>
   </si>
@@ -254,15 +254,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>535305</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>573405</xdr:colOff>
+      <xdr:colOff>306705</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -277,8 +277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3674745" y="952501"/>
-          <a:ext cx="5433060" cy="632460"/>
+          <a:off x="3337560" y="1158241"/>
+          <a:ext cx="5503545" cy="480059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -325,7 +325,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> any expenses for the categories below.  Feel free to modify or add categories based on your budget.  Make sure to enter at least 10 items and make sure that at least three categories have more then one item.</a:t>
+            <a:t> expenses for the categories below for a typical month.  Make sure to enter at least 10 items and make sure that at least three categories have more then one item.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -602,7 +602,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CBA7B67C-7484-4D59-BD89-36B97AC0AA94}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="492" windowWidth="17916" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2352" windowWidth="20316" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Category</t>
   </si>
@@ -103,7 +105,14 @@
   </si>
   <si>
     <t>2.  Enter a formula in each cell of column B to compute the total spent for each category. Use the =SUM(DATA) formula. Make sure to format as currency with two decimal places.
-3.  Then create a pie chart based on these totals. Make sure that the pie chart shows the percentages of your total budget. Remove the legend and change the title.</t>
+3.  Add a pie chart based on these totals. Make sure that the pie chart shows the percentages of your total budget. Make sure the categories are labeled and set the title.
+4. Add a bar chart showing the totals, set the axis label and title.</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Percent of total</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -203,32 +212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -322,25 +305,111 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -348,47 +417,73 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -396,24 +491,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -421,32 +505,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -454,81 +609,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -810,269 +903,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="str">
+      <c r="B1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="str">
         <f>B11</f>
         <v>Housing/
 Utilities</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="str">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="str">
         <f>C11</f>
         <v>Transportation</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="str">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="str">
         <f>D11</f>
         <v>Food</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="36" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="str">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="str">
         <f>E11</f>
         <v>Insurance/
 Medical</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="35" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="str">
         <f>F11</f>
         <v>Other</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="G6" s="8" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="str">
         <f>G11</f>
         <v>Saving/Giving/
 Paying off Debt</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="G7" s="10" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="12" t="s">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="H8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="28" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="13" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="14" t="s">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="H10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
@@ -1372,13 +1487,13 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:F5"/>
     <mergeCell ref="C9:F10"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D2:G7"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CBA7B67C-7484-4D59-BD89-36B97AC0AA94}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE05FFAB-3E8D-478B-A2FC-7938402CC3FE}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2352" windowWidth="20316" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2568" yWindow="1332" windowWidth="19668" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Video on formatting</t>
   </si>
   <si>
-    <t>1. Enter expenses for the categories below for a typical month.  Make sure to enter at least 10 items and make sure that at least three categories have more then one item.</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -102,24 +99,33 @@
   </si>
   <si>
     <t>Video on Pie Chart</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Percent of total</t>
   </si>
   <si>
     <t>2.  Enter a formula in each cell of column B to compute the total spent for each category. Use the =SUM(DATA) formula. Make sure to format as currency with two decimal places.
 3.  Add a pie chart based on these totals. Make sure that the pie chart shows the percentages of your total budget. Make sure the categories are labeled and set the title.
-4. Add a bar chart showing the totals, set the axis label and title.</t>
-  </si>
-  <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Percent of total</t>
+4. Add a bar chart showing the subtotals, set the axis label and title.</t>
+  </si>
+  <si>
+    <t>1. Enter expenses for the categories below for a typical month.  Make sure to enter at least 10 items and make sure that at least three categories have more than one item.</t>
+  </si>
+  <si>
+    <t>Make sure to format dollar amounts as currency with two decimal places, like $12.45, and percentages with two decimals, like 1.23%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +148,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="8">
@@ -188,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -495,6 +507,56 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -505,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,65 +583,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,6 +631,74 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -906,7 +983,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,155 +995,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>24</v>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="str">
+      <c r="A2" s="19" t="str">
         <f>B11</f>
         <v>Housing/
 Utilities</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="36">
+        <f>SUM(B12:B24)</f>
+        <v>1530</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="str">
+      <c r="A3" s="20" t="str">
         <f>C11</f>
         <v>Transportation</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="str">
+      <c r="A4" s="20" t="str">
         <f>D11</f>
         <v>Food</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="str">
+      <c r="A5" s="20" t="str">
         <f>E11</f>
         <v>Insurance/
 Medical</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="str">
+      <c r="A6" s="20" t="str">
         <f>F11</f>
         <v>Other</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="27" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="28" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="str">
+      <c r="A7" s="21" t="str">
         <f>G11</f>
         <v>Saving/Giving/
 Paying off Debt</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="29" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="30" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="H8" s="31" t="s">
+      <c r="I8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="30" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="H9" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="H9" s="32" t="s">
+      <c r="I9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="30" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="H10" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="H10" s="33" t="s">
+      <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1085,32 +1169,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
+    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+      <c r="B12" s="38">
+        <v>1500</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="38">
+        <v>30</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
+    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="48"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1486,10 +1578,11 @@
       <c r="G61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C9:F10"/>
     <mergeCell ref="D2:G7"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE05FFAB-3E8D-478B-A2FC-7938402CC3FE}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A21CD5A1-B94B-4F99-8F4B-9179909F70C5}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="1332" windowWidth="19668" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2712" yWindow="396" windowWidth="17088" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Richard Ketchersid</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{77323308-3B52-4676-8F5E-4145CA4FED7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Richard Ketchersid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Example formula to get you started. All the subtotals should be =sum(category range).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Richard Ketchersid:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Entry to get you started, change these to your own values.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
@@ -123,9 +181,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +212,19 @@
       <color theme="1"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -631,6 +702,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -665,30 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -979,11 +1050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,17 +1082,17 @@
         <v>Housing/
 Utilities</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="25">
         <f>SUM(B12:B24)</f>
         <v>1530</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="str">
@@ -1030,10 +1101,10 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1045,10 +1116,10 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1061,14 +1132,14 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="str">
@@ -1077,10 +1148,10 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1096,10 +1167,10 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1120,12 +1191,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
       <c r="H9" s="15" t="s">
         <v>16</v>
       </c>
@@ -1137,10 +1208,10 @@
       <c r="A10" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="H10" s="16" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1221,7 @@
     </row>
     <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1171,7 +1242,7 @@
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
-      <c r="B12" s="38">
+      <c r="B12" s="27">
         <v>1500</v>
       </c>
       <c r="C12" s="5"/>
@@ -1182,7 +1253,7 @@
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47"/>
-      <c r="B13" s="38">
+      <c r="B13" s="27">
         <v>30</v>
       </c>
       <c r="C13" s="5"/>
@@ -1193,7 +1264,7 @@
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1202,7 +1273,7 @@
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1590,5 +1661,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A21CD5A1-B94B-4F99-8F4B-9179909F70C5}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49346C48-CE4A-431D-BBA3-5E30E47FC56C}"/>
   <bookViews>
-    <workbookView xWindow="2712" yWindow="396" windowWidth="17088" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17088" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -165,15 +165,16 @@
     <t>Percent of total</t>
   </si>
   <si>
-    <t>2.  Enter a formula in each cell of column B to compute the total spent for each category. Use the =SUM(DATA) formula. Make sure to format as currency with two decimal places.
+    <t>1. Enter expenses for the categories below for a typical month.  Make sure to enter at least 10 items and make sure that at least three categories have more than one item.</t>
+  </si>
+  <si>
+    <t>Make sure to format dollar amounts as currency with two decimal places, like $12.45, and percentages with two decimals, like 1.23%</t>
+  </si>
+  <si>
+    <t>2.  Enter a formula in each cell of column B to compute the total spent for each category. Use the =SUM(RANGE) formula. Make sure to format as currency with two decimal places.
+3. Compute the total budget, again using =SUM(RANGE), then fill out column C with the percentages.
 3.  Add a pie chart based on these totals. Make sure that the pie chart shows the percentages of your total budget. Make sure the categories are labeled and set the title.
 4. Add a bar chart showing the subtotals, set the axis label and title.</t>
-  </si>
-  <si>
-    <t>1. Enter expenses for the categories below for a typical month.  Make sure to enter at least 10 items and make sure that at least three categories have more than one item.</t>
-  </si>
-  <si>
-    <t>Make sure to format dollar amounts as currency with two decimal places, like $12.45, and percentages with two decimals, like 1.23%</t>
   </si>
 </sst>
 </file>
@@ -271,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -322,24 +323,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -638,38 +621,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -677,97 +676,57 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1013,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1024,7 @@
     <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1075,6 +1034,12 @@
       <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
+      <c r="D1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="str">
@@ -1087,12 +1052,10 @@
         <v>1530</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="D2" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="str">
@@ -1101,10 +1064,10 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1116,10 +1079,10 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1132,14 +1095,14 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="45"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="str">
@@ -1148,10 +1111,10 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1167,10 +1130,10 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1183,6 +1146,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1159,7 @@
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
@@ -1205,8 +1172,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
-        <v>25</v>
+      <c r="A10" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -1220,7 +1187,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1208,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="27">
         <v>1500</v>
       </c>
@@ -1252,7 +1219,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="27">
         <v>30</v>
       </c>
@@ -1263,7 +1230,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="28"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1272,7 +1239,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="28"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1651,9 +1618,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C9:F10"/>
-    <mergeCell ref="D2:G7"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A10:A15"/>
+    <mergeCell ref="D1:G8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49346C48-CE4A-431D-BBA3-5E30E47FC56C}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{886284BC-DCB5-4DF6-9135-24A5B448A4DC}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17088" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="22188" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Category</t>
   </si>
@@ -175,6 +175,9 @@
 3. Compute the total budget, again using =SUM(RANGE), then fill out column C with the percentages.
 3.  Add a pie chart based on these totals. Make sure that the pie chart shows the percentages of your total budget. Make sure the categories are labeled and set the title.
 4. Add a bar chart showing the subtotals, set the axis label and title.</t>
+  </si>
+  <si>
+    <t>Video on bar chart</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,9 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -729,6 +729,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1013,7 +1017,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,12 +1038,12 @@
       <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="str">
@@ -1052,10 +1056,13 @@
         <v>1530</v>
       </c>
       <c r="C2" s="22"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="str">
@@ -1064,10 +1071,10 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1079,10 +1086,10 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1095,14 +1102,14 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="str">
@@ -1111,10 +1118,10 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1130,10 +1137,10 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1146,10 +1153,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1179,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="32"/>
@@ -1187,7 +1194,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1215,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="27">
         <v>1500</v>
       </c>
@@ -1219,7 +1226,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="27">
         <v>30</v>
       </c>
@@ -1230,7 +1237,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="28"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1239,7 +1246,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="28"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1625,9 +1632,10 @@
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{04C1791B-DA4E-4034-BEAE-75DA9F7EA87A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{886284BC-DCB5-4DF6-9135-24A5B448A4DC}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32964023-7DA1-4B68-BE48-55BAF852D1CE}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="22188" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -159,9 +159,6 @@
     <t>Video on Pie Chart</t>
   </si>
   <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
     <t>Percent of total</t>
   </si>
   <si>
@@ -178,6 +175,31 @@
   </si>
   <si>
     <t>Video on bar chart</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subtotal</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Video on this</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -187,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +251,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -624,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,9 +670,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,9 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -694,6 +718,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -732,7 +757,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1017,7 +1050,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D1" sqref="D1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,173 +1062,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="D1" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="str">
+      <c r="A2" s="17" t="str">
         <f>B11</f>
         <v>Housing/
 Utilities</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <f>SUM(B12:B24)</f>
         <v>1530</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41" t="s">
-        <v>26</v>
+      <c r="C2" s="20"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="str">
+      <c r="A3" s="18" t="str">
         <f>C11</f>
         <v>Transportation</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="str">
+      <c r="A4" s="18" t="str">
         <f>D11</f>
         <v>Food</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="18" t="str">
         <f>E11</f>
         <v>Insurance/
 Medical</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="35" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="str">
+      <c r="A6" s="18" t="str">
         <f>F11</f>
         <v>Other</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="10" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="str">
+      <c r="A7" s="19" t="str">
         <f>G11</f>
         <v>Saving/Giving/
 Paying off Debt</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="12" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="14" t="s">
+      <c r="B8" s="7"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="H9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="H9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="H10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1215,8 +1248,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="27">
+      <c r="A12" s="37"/>
+      <c r="B12" s="25">
         <v>1500</v>
       </c>
       <c r="C12" s="5"/>
@@ -1226,8 +1259,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="27">
+      <c r="A13" s="37"/>
+      <c r="B13" s="25">
         <v>30</v>
       </c>
       <c r="C13" s="5"/>
@@ -1237,8 +1270,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1246,8 +1279,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1633,9 +1666,10 @@
     <hyperlink ref="H3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
     <hyperlink ref="H2" r:id="rId3" xr:uid="{04C1791B-DA4E-4034-BEAE-75DA9F7EA87A}"/>
+    <hyperlink ref="B1" r:id="rId4" display="https://www.loom.com/share/85a3f365a36b44268ad7bdd7904df6e2" xr:uid="{D7CABF90-EB57-41A7-8BD2-DD2E42A00666}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32964023-7DA1-4B68-BE48-55BAF852D1CE}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D3A183C-8027-420B-8BA0-58DAD4AD380F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,6 +719,15 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,15 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,21 +1062,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="str">
@@ -1089,10 +1089,10 @@
         <v>1530</v>
       </c>
       <c r="C2" s="20"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="27" t="s">
         <v>25</v>
       </c>
@@ -1104,10 +1104,10 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1119,10 +1119,10 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1135,14 +1135,14 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="str">
@@ -1151,10 +1151,10 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1170,10 +1170,10 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1186,10 +1186,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="13" t="s">
         <v>14</v>
       </c>
@@ -1198,12 +1198,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
       <c r="H9" s="14" t="s">
         <v>16</v>
       </c>
@@ -1212,13 +1212,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="H10" s="15" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="24" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="25">
         <v>1500</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="25">
         <v>30</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="26"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1279,7 +1279,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="26"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D3A183C-8027-420B-8BA0-58DAD4AD380F}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E341806-A57E-49DE-B49F-FDA4BB9A0187}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="15900" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -419,19 +419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -647,6 +634,59 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -654,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,22 +707,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -690,44 +727,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -750,21 +765,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,260 +1114,249 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="str">
-        <f>B11</f>
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="str">
+        <f>B13</f>
         <v>Housing/
 Utilities</v>
       </c>
-      <c r="B2" s="23">
-        <f>SUM(B12:B24)</f>
+      <c r="B2" s="19">
+        <f>SUM(B14:B26)</f>
         <v>1530</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="27" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="str">
-        <f>C11</f>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="str">
+        <f>C13</f>
         <v>Transportation</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="6" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="str">
-        <f>D11</f>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="str">
+        <f>D13</f>
         <v>Food</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="6" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="str">
-        <f>E11</f>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="str">
+        <f>E13</f>
         <v>Insurance/
 Medical</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="37" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="str">
-        <f>F11</f>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="str">
+        <f>F13</f>
         <v>Other</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="9" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="str">
-        <f>G11</f>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="str">
+        <f>G13</f>
         <v>Saving/Giving/
 Paying off Debt</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="11" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="13" t="s">
+      <c r="B8" s="6"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="31" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="H9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="H10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="25">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="21">
         <v>1500</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="25">
-        <v>30</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="26"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
-      <c r="B15" s="26"/>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="21">
+        <v>30</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1311,7 +1364,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1319,7 +1372,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1327,7 +1380,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1335,7 +1388,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1343,7 +1396,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1351,7 +1404,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1359,23 +1412,23 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1383,7 +1436,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1391,7 +1444,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1399,7 +1452,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1407,7 +1460,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1415,7 +1468,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1423,7 +1476,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1431,7 +1484,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1439,7 +1492,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1447,7 +1500,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1455,7 +1508,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1463,7 +1516,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1471,7 +1524,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1479,7 +1532,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1487,7 +1540,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1495,7 +1548,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1503,7 +1556,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1511,7 +1564,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1519,7 +1572,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1527,7 +1580,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1535,7 +1588,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1543,7 +1596,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1551,7 +1604,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1559,7 +1612,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1567,7 +1620,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1575,7 +1628,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1583,7 +1636,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1591,7 +1644,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1599,7 +1652,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1607,7 +1660,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1615,7 +1668,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1623,7 +1676,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1631,7 +1684,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1639,7 +1692,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1647,7 +1700,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1657,10 +1710,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="C11:F12"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A10:A15"/>
     <mergeCell ref="D1:G8"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E341806-A57E-49DE-B49F-FDA4BB9A0187}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FAA2DB37-91BF-47AF-9D0E-0B04A112290A}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1680" windowWidth="15900" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Category</t>
   </si>
@@ -177,29 +177,11 @@
     <t>Video on bar chart</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Subtotal</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>(silent video)</t>
+  </si>
+  <si>
+    <t>Subtotal
 Video on this</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -254,6 +236,7 @@
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -694,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,6 +726,24 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,33 +761,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -797,38 +806,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,7 +1100,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,21 +1112,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
@@ -1153,11 +1139,11 @@
         <v>1530</v>
       </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="31" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="50" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1168,12 +1154,15 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="32" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="51" t="s">
         <v>8</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1183,11 +1172,11 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="32" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="51" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1199,14 +1188,14 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="33" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="str">
@@ -1215,11 +1204,11 @@
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="34" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1234,11 +1223,11 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="35" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1250,11 +1239,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="36" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -1278,25 +1267,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="46"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="20" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1306,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="21">
         <v>1500</v>
       </c>
@@ -1328,7 +1317,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="21">
         <v>30</v>
       </c>
@@ -1339,7 +1328,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="22"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1348,7 +1337,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="22"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1719,7 +1708,7 @@
     <hyperlink ref="H3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
     <hyperlink ref="H2" r:id="rId3" xr:uid="{04C1791B-DA4E-4034-BEAE-75DA9F7EA87A}"/>
-    <hyperlink ref="B1" r:id="rId4" display="https://www.loom.com/share/85a3f365a36b44268ad7bdd7904df6e2" xr:uid="{D7CABF90-EB57-41A7-8BD2-DD2E42A00666}"/>
+    <hyperlink ref="B1" r:id="rId4" display="https://youtu.be/ZshkslP__Hs" xr:uid="{D7CABF90-EB57-41A7-8BD2-DD2E42A00666}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FAA2DB37-91BF-47AF-9D0E-0B04A112290A}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85C72D49-D432-4E9A-9726-385E23FED8EE}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="435" windowWidth="18510" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -677,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,6 +744,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -806,14 +816,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1099,36 +1102,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="29" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="str">
         <f>B13</f>
         <v>Housing/
@@ -1139,48 +1142,48 @@
         <v>1530</v>
       </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="50" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="str">
         <f>C13</f>
         <v>Transportation</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="51" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="str">
         <f>D13</f>
         <v>Food</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="51" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="str">
         <f>E13</f>
         <v>Insurance/
@@ -1188,26 +1191,26 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="str">
         <f>F13</f>
         <v>Other</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="str">
         <f>G13</f>
         <v>Saving/Giving/
@@ -1223,10 +1226,10 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="24" t="s">
         <v>12</v>
       </c>
@@ -1234,15 +1237,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="25" t="s">
         <v>14</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1266,26 +1269,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
       <c r="B13" s="20" t="s">
         <v>5</v>
       </c>
@@ -1305,8 +1308,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
       <c r="B14" s="21">
         <v>1500</v>
       </c>
@@ -1316,8 +1319,8 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
       <c r="B15" s="21">
         <v>30</v>
       </c>
@@ -1327,8 +1330,8 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
       <c r="B16" s="22"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1336,8 +1339,8 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="51"/>
       <c r="B17" s="22"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1345,7 +1348,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1353,7 +1356,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1361,7 +1364,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1369,7 +1372,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1377,7 +1380,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1385,7 +1388,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1393,7 +1396,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1401,7 +1404,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1409,7 +1412,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1417,7 +1420,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1425,7 +1428,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1433,7 +1436,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1441,7 +1444,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1449,7 +1452,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1457,7 +1460,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1465,7 +1468,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1473,7 +1476,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1481,7 +1484,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1489,7 +1492,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1497,7 +1500,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1505,7 +1508,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1513,7 +1516,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1521,7 +1524,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1529,7 +1532,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1537,7 +1540,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1545,7 +1548,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1553,7 +1556,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1561,7 +1564,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1569,7 +1572,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1577,7 +1580,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1585,7 +1588,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1593,7 +1596,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1601,7 +1604,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1609,7 +1612,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1617,7 +1620,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1625,7 +1628,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1633,7 +1636,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1641,7 +1644,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1649,7 +1652,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1657,7 +1660,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1665,7 +1668,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1673,7 +1676,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1681,7 +1684,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1689,7 +1692,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85C72D49-D432-4E9A-9726-385E23FED8EE}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1F521106-EAD1-4260-98E1-2ABF6F8EA64B}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="435" windowWidth="18510" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>Richard Ketchersid</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{77323308-3B52-4676-8F5E-4145CA4FED7B}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{77323308-3B52-4676-8F5E-4145CA4FED7B}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Category</t>
   </si>
@@ -182,6 +182,12 @@
   <si>
     <t>Subtotal
 Video on this</t>
+  </si>
+  <si>
+    <t>Enter your name here ⇒</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +249,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -677,23 +690,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -714,18 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -738,40 +725,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -780,51 +733,185 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1100,351 +1187,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A2:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="str">
-        <f>B13</f>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="str">
+        <f>B16</f>
         <v>Housing/
 Utilities</v>
       </c>
-      <c r="B2" s="19">
-        <f>SUM(B14:B26)</f>
+      <c r="B5" s="21">
+        <f>SUM(B17:B29)</f>
         <v>1530</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="30" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="str">
-        <f>C13</f>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="str">
+        <f>C16</f>
         <v>Transportation</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="31" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I6" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="str">
-        <f>D13</f>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="str">
+        <f>D16</f>
         <v>Food</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="52" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="str">
-        <f>E13</f>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="str">
+        <f>E16</f>
         <v>Insurance/
 Medical</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="38" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="str">
-        <f>F13</f>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="str">
+        <f>F16</f>
         <v>Other</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="23" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="str">
-        <f>G13</f>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="str">
+        <f>G16</f>
         <v>Saving/Giving/
 Paying off Debt</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="24" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="25" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H9" s="10" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="11" t="s">
+    <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="20" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C16" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D16" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E16" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F16" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G16" s="50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="21">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="51">
         <v>1500</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="21">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="51">
         <v>30</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1452,7 +1588,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1460,7 +1596,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1468,7 +1604,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1476,7 +1612,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1484,7 +1620,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1492,7 +1628,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1500,7 +1636,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1508,7 +1644,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1516,7 +1652,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1524,7 +1660,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1532,7 +1668,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1540,7 +1676,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1548,7 +1684,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1556,7 +1692,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1564,7 +1700,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1572,7 +1708,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1580,7 +1716,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1588,7 +1724,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1596,7 +1732,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1604,7 +1740,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1612,7 +1748,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1620,7 +1756,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1628,7 +1764,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1636,7 +1772,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1644,7 +1780,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1652,7 +1788,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1660,7 +1796,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1668,7 +1804,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1676,7 +1812,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1684,7 +1820,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1692,7 +1828,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1700,18 +1836,48 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="LP+Jj/c6cY8XeEZ6oCqMTY+jHzF9cBBddn3ahIGPT18+MftS22DTFbAV8PohFLHFCoDiXE04l+G/qnqt9c/1tQ==" saltValue="BFR4lwLjdWVDtn0ADAzlHw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
   <mergeCells count="4">
-    <mergeCell ref="C11:F12"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D1:G8"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D4:G11"/>
+    <mergeCell ref="A14:A20"/>
   </mergeCells>
+  <conditionalFormatting sqref="A4:I29">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$2="Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{04C1791B-DA4E-4034-BEAE-75DA9F7EA87A}"/>
-    <hyperlink ref="B1" r:id="rId4" display="https://youtu.be/ZshkslP__Hs" xr:uid="{D7CABF90-EB57-41A7-8BD2-DD2E42A00666}"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{04C1791B-DA4E-4034-BEAE-75DA9F7EA87A}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://youtu.be/ZshkslP__Hs" xr:uid="{D7CABF90-EB57-41A7-8BD2-DD2E42A00666}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1F521106-EAD1-4260-98E1-2ABF6F8EA64B}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2CD56228-04E7-4A38-907D-B5B6FE216879}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="3105" windowWidth="19170" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -725,6 +725,120 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -733,21 +847,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -760,18 +859,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -784,40 +871,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -834,65 +887,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1202,115 +1202,115 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="15" t="str">
         <f>B16</f>
         <v>Housing/
 Utilities</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="16">
         <f>SUM(B17:B29)</f>
         <v>1530</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="str">
+      <c r="A6" s="19" t="str">
         <f>C16</f>
         <v>Transportation</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="29" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="str">
+      <c r="A7" s="19" t="str">
         <f>D16</f>
         <v>Food</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="31" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="str">
+      <c r="A8" s="19" t="str">
         <f>E16</f>
         <v>Insurance/
 Medical</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="10" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="str">
+      <c r="A9" s="19" t="str">
         <f>F16</f>
         <v>Other</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1319,17 +1319,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="str">
+      <c r="A10" s="24" t="str">
         <f>G16</f>
         <v>Saving/Giving/
 Paying off Debt</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1338,15 +1338,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
@@ -1355,13 +1355,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1370,13 +1370,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1385,200 +1385,200 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="51">
+      <c r="A17" s="54"/>
+      <c r="B17" s="32">
         <v>1500</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="51">
+      <c r="A18" s="54"/>
+      <c r="B18" s="32">
         <v>30</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2CD56228-04E7-4A38-907D-B5B6FE216879}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8277E4B2-CBA1-451E-9CCD-43889BE415BE}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="3105" windowWidth="19170" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="780" windowWidth="15120" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
       <text>
         <r>
           <rPr>
@@ -162,9 +162,6 @@
     <t>Percent of total</t>
   </si>
   <si>
-    <t>1. Enter expenses for the categories below for a typical month.  Make sure to enter at least 10 items and make sure that at least three categories have more than one item.</t>
-  </si>
-  <si>
     <t>Make sure to format dollar amounts as currency with two decimal places, like $12.45, and percentages with two decimals, like 1.23%</t>
   </si>
   <si>
@@ -188,6 +185,23 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter expenses for the categories below for a typical month.  Make sure to enter at least 10 items and make sure that at least three categories have more than one item.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You use or make up your own data.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -690,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -725,9 +739,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -811,10 +822,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -893,6 +900,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -900,7 +926,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="0.499984740745262"/>
@@ -1187,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,116 +1237,117 @@
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="D4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="str">
-        <f>B16</f>
+      <c r="A5" s="14" t="str">
+        <f>B17</f>
         <v>Housing/
 Utilities</v>
       </c>
-      <c r="B5" s="16">
-        <f>SUM(B17:B29)</f>
+      <c r="B5" s="15">
+        <f>SUM(B18:B30)</f>
         <v>1530</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="str">
+        <f>C17</f>
+        <v>Transportation</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="str">
-        <f>C16</f>
-        <v>Transportation</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="str">
-        <f>D16</f>
+      <c r="A7" s="18" t="str">
+        <f>D17</f>
         <v>Food</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="23" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="str">
-        <f>E16</f>
+      <c r="A8" s="18" t="str">
+        <f>E17</f>
         <v>Insurance/
 Medical</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="42" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="43"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="str">
-        <f>F16</f>
+      <c r="A9" s="18" t="str">
+        <f>F17</f>
         <v>Other</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1319,17 +1356,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="str">
-        <f>G16</f>
+      <c r="A10" s="23" t="str">
+        <f>G17</f>
         <v>Saving/Giving/
 Paying off Debt</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1338,15 +1375,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
@@ -1355,13 +1392,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1370,13 +1407,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1385,208 +1422,206 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="36" t="s">
+      <c r="A14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="28" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="32">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
+      <c r="B18" s="31">
         <v>1500</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="32">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="31">
         <v>30</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
@@ -1861,15 +1896,15 @@
       <c r="G64" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LP+Jj/c6cY8XeEZ6oCqMTY+jHzF9cBBddn3ahIGPT18+MftS22DTFbAV8PohFLHFCoDiXE04l+G/qnqt9c/1tQ==" saltValue="BFR4lwLjdWVDtn0ADAzlHw==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y7iCT4HSrPOaIqpNuExTLx0kEXOkCm9JkgsUH/O2ThzJTUb4GDO4bgnjCXtSj4LJq0J5KBfPfqVyafM8+xRsIQ==" saltValue="eby2L/bpOgd1TluYj77g2A==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
   <mergeCells count="4">
-    <mergeCell ref="C14:F15"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="D4:G11"/>
     <mergeCell ref="A14:A20"/>
+    <mergeCell ref="C14:F16"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:I29">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A4:I30">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B$2="Name"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8277E4B2-CBA1-451E-9CCD-43889BE415BE}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE5737AA-24BA-4B05-A5FF-ADF49E950B9F}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="780" windowWidth="15120" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
+    <sheet name="Ignore Halo" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Category</t>
   </si>
@@ -203,6 +204,9 @@
       <t>You use or make up your own data.</t>
     </r>
   </si>
+  <si>
+    <t>Ignore the Halo preview of this file. You must download the file and open in Excel to see the contents correctly.</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +274,14 @@
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -704,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -822,6 +834,69 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -834,6 +909,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -846,97 +933,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="1" tint="0.499984740745262"/>
@@ -1239,10 +1244,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1257,12 +1262,12 @@
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
@@ -1277,10 +1282,10 @@
         <v>1530</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="17" t="s">
         <v>24</v>
       </c>
@@ -1293,10 +1298,10 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="20" t="s">
         <v>8</v>
       </c>
@@ -1311,10 +1316,10 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="22" t="s">
         <v>20</v>
       </c>
@@ -1328,14 +1333,14 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="40" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="41"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="str">
@@ -1344,10 +1349,10 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1363,10 +1368,10 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1380,10 +1385,10 @@
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
@@ -1422,42 +1427,42 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="55"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="56"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="48"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="27" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1485,7 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="31">
         <v>1500</v>
       </c>
@@ -1493,7 +1498,7 @@
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="31">
         <v>30</v>
       </c>
@@ -1506,7 +1511,7 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="33"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -1904,7 +1909,7 @@
     <mergeCell ref="C14:F16"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:I30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$2="Name"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1918,4 +1923,81 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
   <legacyDrawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92D00C-61B5-438D-8A19-1C9E0E2CA167}">
+  <dimension ref="C4:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE5737AA-24BA-4B05-A5FF-ADF49E950B9F}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D709DDF1-BD5C-4606-82E7-D972E3915D38}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D709DDF1-BD5C-4606-82E7-D972E3915D38}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C6348AD-3DB3-481A-86F0-77C0C5AE8560}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1470" windowWidth="20430" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="555" windowWidth="25590" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
     <sheet name="Ignore Halo" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D46CCC17-9CFA-490D-812B-BC1D3CD69288}" mergeInterval="0" personalView="1" xWindow="59" yWindow="37" windowWidth="1706" windowHeight="935" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
     <author>Richard Ketchersid</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{77323308-3B52-4676-8F5E-4145CA4FED7B}">
+    <comment ref="B5" authorId="0" guid="{F7B29AFA-3FB1-41E4-B288-CB1E56550011}" shapeId="0" xr:uid="{77323308-3B52-4676-8F5E-4145CA4FED7B}">
       <text>
         <r>
           <rPr>
@@ -63,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
+    <comment ref="B18" authorId="0" guid="{CBD1FB6B-BF4C-4A71-A7D2-8F3688934687}" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
       <text>
         <r>
           <rPr>
@@ -92,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Category</t>
   </si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>Ignore the Halo preview of this file. You must download the file and open in Excel to see the contents correctly.</t>
+  </si>
+  <si>
+    <t>Video for adding elements to charts for MAC users.</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -935,6 +941,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,6 +977,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A4E06FED-785F-4AAF-9BDE-5E4C025AF0F8}">
+  <header guid="{A4E06FED-785F-4AAF-9BDE-5E4C025AF0F8}" dateTime="2022-08-05T13:02:10" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{A4E06FED-785F-4AAF-9BDE-5E4C025AF0F8}" name="Richard Ketchersid" id="-1739546173" dateTime="2022-08-05T13:02:10"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,7 +1266,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,8 +1303,10 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="str">
@@ -1901,27 +1938,36 @@
       <c r="G64" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y7iCT4HSrPOaIqpNuExTLx0kEXOkCm9JkgsUH/O2ThzJTUb4GDO4bgnjCXtSj4LJq0J5KBfPfqVyafM8+xRsIQ==" saltValue="eby2L/bpOgd1TluYj77g2A==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
-  <mergeCells count="4">
+  <sheetProtection algorithmName="SHA-512" hashValue="moZAHjZIeW12C3nkQyiwj0PDu102o0BQAQSZfEzUSjntceTk9oJX11jKhPjCdDz/mXkQ/yDhQ+ocJm0pi7bDRA==" saltValue="7BgtWrWo80/1d7qqs726ZA==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
+  <customSheetViews>
+    <customSheetView guid="{D46CCC17-9CFA-490D-812B-BC1D3CD69288}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="5">
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="D4:G11"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="C14:F16"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:I30">
+  <conditionalFormatting sqref="A5:I30 A4:H4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$2="Name"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{04C1791B-DA4E-4034-BEAE-75DA9F7EA87A}"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://youtu.be/ZshkslP__Hs" xr:uid="{D7CABF90-EB57-41A7-8BD2-DD2E42A00666}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{1DE907B6-307C-42D2-B4E3-982D6AFCB219}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{53D464FC-793C-400A-AC43-28A9D19982E4}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{04C1791B-DA4E-4034-BEAE-75DA9F7EA87A}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://youtu.be/ZshkslP__Hs" xr:uid="{D7CABF90-EB57-41A7-8BD2-DD2E42A00666}"/>
+    <hyperlink ref="H4:I4" r:id="rId6" display="Video for adding elements to charts for MAC users." xr:uid="{1F0D7A9E-34E4-4C03-A4EC-DA5B7B714AFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1994,10 +2040,17 @@
       <c r="H10" s="59"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{D46CCC17-9CFA-490D-812B-BC1D3CD69288}" state="hidden">
+      <selection activeCell="C4" sqref="C4:H10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="C4:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{21809FF7-56DB-4A8E-A002-5816279CAA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C6348AD-3DB3-481A-86F0-77C0C5AE8560}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{D3452BF7-3F29-44F5-913C-BD3C08EBFBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="555" windowWidth="25590" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="444" windowWidth="20472" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Richard Ketchersid</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" guid="{F7B29AFA-3FB1-41E4-B288-CB1E56550011}" shapeId="0" xr:uid="{77323308-3B52-4676-8F5E-4145CA4FED7B}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{77323308-3B52-4676-8F5E-4145CA4FED7B}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" guid="{CBD1FB6B-BF4C-4A71-A7D2-8F3688934687}" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{B2A731CF-ECF6-4046-8B5F-56F64D34789C}">
       <text>
         <r>
           <rPr>
@@ -939,16 +939,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -977,27 +977,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A4E06FED-785F-4AAF-9BDE-5E4C025AF0F8}">
-  <header guid="{A4E06FED-785F-4AAF-9BDE-5E4C025AF0F8}" dateTime="2022-08-05T13:02:10" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{A4E06FED-785F-4AAF-9BDE-5E4C025AF0F8}" name="Richard Ketchersid" id="-1739546173" dateTime="2022-08-05T13:02:10"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1269,16 +1248,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
@@ -1286,8 +1265,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1303,12 +1282,12 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="61"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="60"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="str">
         <f>B17</f>
         <v>Housing/
@@ -1328,7 +1307,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="str">
         <f>C17</f>
         <v>Transportation</v>
@@ -1346,7 +1325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="str">
         <f>D17</f>
         <v>Food</v>
@@ -1362,7 +1341,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="str">
         <f>E17</f>
         <v>Insurance/
@@ -1379,7 +1358,7 @@
       </c>
       <c r="I8" s="37"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="str">
         <f>F17</f>
         <v>Other</v>
@@ -1397,7 +1376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="str">
         <f>G17</f>
         <v>Saving/Giving/
@@ -1416,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
@@ -1433,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1448,7 +1427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1463,7 +1442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1457,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="13"/>
       <c r="C15" s="53"/>
@@ -1489,7 +1468,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57"/>
@@ -1498,7 +1477,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
       <c r="B17" s="27" t="s">
         <v>5</v>
@@ -1521,7 +1500,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="B18" s="31">
         <v>1500</v>
@@ -1534,7 +1513,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="31">
         <v>30</v>
@@ -1547,7 +1526,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49"/>
       <c r="B20" s="33"/>
       <c r="C20" s="32"/>
@@ -1558,7 +1537,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -1569,7 +1548,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
@@ -1580,7 +1559,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -1591,7 +1570,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -1602,7 +1581,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1613,7 +1592,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -1624,7 +1603,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -1635,7 +1614,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -1646,7 +1625,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -1657,7 +1636,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
@@ -1665,7 +1644,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1673,7 +1652,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1681,7 +1660,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1689,7 +1668,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1697,7 +1676,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1705,7 +1684,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1713,7 +1692,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1721,7 +1700,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1729,7 +1708,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1737,7 +1716,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1745,7 +1724,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1753,7 +1732,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1761,7 +1740,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1769,7 +1748,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1777,7 +1756,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1785,7 +1764,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1793,7 +1772,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1801,7 +1780,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1809,7 +1788,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1817,7 +1796,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1825,7 +1804,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1833,7 +1812,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1841,7 +1820,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1849,7 +1828,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1857,7 +1836,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1865,7 +1844,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1873,7 +1852,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1881,7 +1860,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1889,7 +1868,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1897,7 +1876,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1905,7 +1884,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1913,7 +1892,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1921,7 +1900,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1929,7 +1908,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1979,65 +1958,65 @@
       <selection activeCell="C4" sqref="C4:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="59" t="s">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{D3452BF7-3F29-44F5-913C-BD3C08EBFBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="10_ncr:80_{D3452BF7-3F29-44F5-913C-BD3C08EBFBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D91D724-0DED-4DCC-ADD2-673C979EC12E}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="444" windowWidth="20472" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
-    <sheet name="Ignore Halo" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Bar Chart" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Ignore Halo" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D46CCC17-9CFA-490D-812B-BC1D3CD69288}" mergeInterval="0" personalView="1" xWindow="59" yWindow="37" windowWidth="1706" windowHeight="935" activeSheetId="1"/>
@@ -94,8 +98,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Category</t>
   </si>
@@ -213,6 +239,12 @@
   <si>
     <t>Video for adding elements to charts for MAC users.</t>
   </si>
+  <si>
+    <t>Subtotals</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +320,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -718,11 +757,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -950,10 +990,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -977,6 +1023,3279 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Just subtotals</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Housing/
+Utilities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Insurance/
+Medical</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saving/Giving/
+Paying off Debt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2097-46E9-A154-9C7F19DEEF7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="700525375"/>
+        <c:axId val="700525791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="700525375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700525791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="700525791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700525375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Just percentages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Housing/
+Utilities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Insurance/
+Medical</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saving/Giving/
+Paying off Debt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0571-448D-BD80-436D8F679BFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="593268783"/>
+        <c:axId val="593269199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="593268783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593269199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593269199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593268783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Both</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Housing/
+Utilities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Insurance/
+Medical</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saving/Giving/
+Paying off Debt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4747-4EDD-8146-8AA28D2D8F03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar Chart'!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Housing/
+Utilities</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transportation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Insurance/
+Medical</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saving/Giving/
+Paying off Debt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar Chart'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4747-4EDD-8146-8AA28D2D8F03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="593459087"/>
+        <c:axId val="593459503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="593459087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593459503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593459503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593459087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0446A3-2AE2-4E29-8D48-69F0EB4250A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE910C9-48F7-4707-AB7A-5907A96F550C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5182188" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446C5D5C-4AAE-4D50-9DAD-B48AE87748B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2407920" y="4305300"/>
+          <a:ext cx="5182188" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Clearly these are just showing exactly the same information, so no need to show both.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0930A9-898E-4BD2-BA14-7A52012115DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4174348" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5641C9B-68D1-4593-B31D-E66386241510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="7345680"/>
+          <a:ext cx="4174348" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>This is a bit silly, can you even see a difference in the bars for series</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 2?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304472D9-9A89-443B-BE41-E03C994696A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3863340" y="6659880"/>
+          <a:ext cx="1501140" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4845CC05-4CFA-4A3B-847D-3840D53E968D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4541520" y="6713220"/>
+          <a:ext cx="807720" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Housing/
+Utilities</v>
+          </cell>
+          <cell r="B3">
+            <v>1590</v>
+          </cell>
+          <cell r="C3">
+            <v>0.62970297029702971</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Transportation</v>
+          </cell>
+          <cell r="B4">
+            <v>250</v>
+          </cell>
+          <cell r="C4">
+            <v>9.9009900990099015E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Food</v>
+          </cell>
+          <cell r="B5">
+            <v>205</v>
+          </cell>
+          <cell r="C5">
+            <v>8.1188118811881191E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Insurance/
+Medical</v>
+          </cell>
+          <cell r="B6">
+            <v>200</v>
+          </cell>
+          <cell r="C6">
+            <v>7.9207920792079209E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Other</v>
+          </cell>
+          <cell r="B7">
+            <v>100</v>
+          </cell>
+          <cell r="C7">
+            <v>3.9603960396039604E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Saving/Giving/
+Paying off Debt</v>
+          </cell>
+          <cell r="B8">
+            <v>180</v>
+          </cell>
+          <cell r="C8">
+            <v>7.1287128712871281E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1951,6 +5270,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA1C983-C1CE-4E9F-B99F-003F8FDB0EC0}">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="62" cm="1">
+        <f t="array" ref="B3:B8">Budget!B5:B10</f>
+        <v>1530</v>
+      </c>
+      <c r="C3" s="63" cm="1">
+        <f t="array" ref="C3:C8">_xlfn.ANCHORARRAY(B3)/B9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62">
+        <v>0</v>
+      </c>
+      <c r="C4" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="62">
+        <v>0</v>
+      </c>
+      <c r="C5" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="62">
+        <v>0</v>
+      </c>
+      <c r="C6" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="62">
+        <v>0</v>
+      </c>
+      <c r="C7" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="62">
+        <v>0</v>
+      </c>
+      <c r="C8" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="62">
+        <f>SUM(B3:B8)</f>
+        <v>1530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA92D00C-61B5-438D-8A19-1C9E0E2CA167}">
   <dimension ref="C4:H10"/>
   <sheetViews>

--- a/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
+++ b/144F20/Topic 2/QR_2-2_Tech_Template.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="10_ncr:80_{D3452BF7-3F29-44F5-913C-BD3C08EBFBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D91D724-0DED-4DCC-ADD2-673C979EC12E}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="10_ncr:80_{D3452BF7-3F29-44F5-913C-BD3C08EBFBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC82686-AA8C-4D12-A388-C600F83B590B}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="20796" windowHeight="11424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
     <sheet name="Bar Chart" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Ignore Halo" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Richard Ketchersid - Personal View" guid="{D46CCC17-9CFA-490D-812B-BC1D3CD69288}" mergeInterval="0" personalView="1" xWindow="59" yWindow="37" windowWidth="1706" windowHeight="935" activeSheetId="1"/>
@@ -99,7 +96,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -121,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Category</t>
   </si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Values</t>
+  </si>
+  <si>
+    <t>Charts using online Excel</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -887,113 +887,121 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4215,89 +4223,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Housing/
-Utilities</v>
-          </cell>
-          <cell r="B3">
-            <v>1590</v>
-          </cell>
-          <cell r="C3">
-            <v>0.62970297029702971</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Transportation</v>
-          </cell>
-          <cell r="B4">
-            <v>250</v>
-          </cell>
-          <cell r="C4">
-            <v>9.9009900990099015E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Food</v>
-          </cell>
-          <cell r="B5">
-            <v>205</v>
-          </cell>
-          <cell r="C5">
-            <v>8.1188118811881191E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Insurance/
-Medical</v>
-          </cell>
-          <cell r="B6">
-            <v>200</v>
-          </cell>
-          <cell r="C6">
-            <v>7.9207920792079209E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Other</v>
-          </cell>
-          <cell r="B7">
-            <v>100</v>
-          </cell>
-          <cell r="C7">
-            <v>3.9603960396039604E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Saving/Giving/
-Paying off Debt</v>
-          </cell>
-          <cell r="B8">
-            <v>180</v>
-          </cell>
-          <cell r="C8">
-            <v>7.1287128712871281E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4561,7 +4486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -4575,8 +4500,8 @@
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="16.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
@@ -4584,8 +4509,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -4595,18 +4520,18 @@
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="59" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="60"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="63"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="str">
         <f>B17</f>
         <v>Housing/
@@ -4617,26 +4542,29 @@
         <v>1530</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="str">
         <f>C17</f>
         <v>Transportation</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="20" t="s">
         <v>8</v>
       </c>
@@ -4644,23 +4572,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="str">
         <f>D17</f>
         <v>Food</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="str">
         <f>E17</f>
         <v>Insurance/
@@ -4668,26 +4596,26 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="36" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="str">
         <f>F17</f>
         <v>Other</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
@@ -4695,7 +4623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="str">
         <f>G17</f>
         <v>Saving/Giving/
@@ -4703,10 +4631,10 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
@@ -4714,16 +4642,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
@@ -4731,7 +4659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4746,7 +4674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4761,43 +4689,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
+    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+    <row r="16" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="51"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="27" t="s">
         <v>5</v>
       </c>
@@ -4820,7 +4748,7 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="31">
         <v>1500</v>
       </c>
@@ -4833,7 +4761,7 @@
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="31">
         <v>30</v>
       </c>
@@ -4846,7 +4774,7 @@
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="49"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="33"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -5236,7 +5164,7 @@
       <c r="G64" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="moZAHjZIeW12C3nkQyiwj0PDu102o0BQAQSZfEzUSjntceTk9oJX11jKhPjCdDz/mXkQ/yDhQ+ocJm0pi7bDRA==" saltValue="7BgtWrWo80/1d7qqs726ZA==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertHyperlinks="0"/>
   <customSheetViews>
     <customSheetView guid="{D46CCC17-9CFA-490D-812B-BC1D3CD69288}">
       <selection activeCell="B3" sqref="B3"/>
@@ -5244,12 +5172,13 @@
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="D4:G11"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="C14:F16"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:I30 A4:H4">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -5262,10 +5191,11 @@
     <hyperlink ref="H5" r:id="rId4" xr:uid="{04C1791B-DA4E-4034-BEAE-75DA9F7EA87A}"/>
     <hyperlink ref="B4" r:id="rId5" display="https://youtu.be/ZshkslP__Hs" xr:uid="{D7CABF90-EB57-41A7-8BD2-DD2E42A00666}"/>
     <hyperlink ref="H4:I4" r:id="rId6" display="Video for adding elements to charts for MAC users." xr:uid="{1F0D7A9E-34E4-4C03-A4EC-DA5B7B714AFB}"/>
+    <hyperlink ref="I5:J5" r:id="rId7" display="Charts using online Excel" xr:uid="{C4930F6B-9A6C-4A38-BDF0-96E3AECC9FCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -5283,10 +5213,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="38" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5294,11 +5224,11 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="62" cm="1">
+      <c r="B3" s="36" cm="1">
         <f t="array" ref="B3:B8">Budget!B5:B10</f>
         <v>1530</v>
       </c>
-      <c r="C3" s="63" cm="1">
+      <c r="C3" s="37" cm="1">
         <f t="array" ref="C3:C8">_xlfn.ANCHORARRAY(B3)/B9</f>
         <v>1</v>
       </c>
@@ -5307,10 +5237,10 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="36">
         <v>0</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5318,10 +5248,10 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="36">
         <v>0</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5329,10 +5259,10 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="36">
         <v>0</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5340,10 +5270,10 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="36">
         <v>0</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5351,15 +5281,15 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="36">
         <v>0</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="62">
+      <c r="B9" s="36">
         <f>SUM(B3:B8)</f>
         <v>1530</v>
       </c>
@@ -5382,62 +5312,62 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
     </row>
   </sheetData>
   <customSheetViews>
